--- a/iperf3_analysis.xlsx
+++ b/iperf3_analysis.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Chart2" sheetId="3" r:id="rId1"/>
+    <sheet name="Parallel" sheetId="3" r:id="rId1"/>
     <sheet name="Chart3" sheetId="4" r:id="rId2"/>
-    <sheet name="Chart5" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Parallel (7)" sheetId="6" r:id="rId3"/>
+    <sheet name="Parallel Data" sheetId="1" r:id="rId4"/>
+    <sheet name="Chart1" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Parallel Connections</t>
   </si>
@@ -37,6 +39,48 @@
   </si>
   <si>
     <t>Trial 4</t>
+  </si>
+  <si>
+    <t>Bandwidth (Mbits / sec)</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>bouygues.iperf.fr</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Avg RTT (ms)</t>
+  </si>
+  <si>
+    <t>iperf.biznetnetworks.com</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>iperf.scottlinux.com</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>iperf.volia.net</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>iperf.it-north.net</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
   </si>
 </sst>
 </file>
@@ -176,7 +220,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$21</c:f>
+              <c:f>'Parallel Data'!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -245,7 +289,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$21</c:f>
+              <c:f>'Parallel Data'!$H$2:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -327,7 +371,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$21</c:f>
+              <c:f>'Parallel Data'!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -396,7 +440,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$21</c:f>
+              <c:f>'Parallel Data'!$I$2:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -478,7 +522,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$21</c:f>
+              <c:f>'Parallel Data'!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -547,7 +591,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$21</c:f>
+              <c:f>'Parallel Data'!$J$2:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -621,11 +665,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2132684360"/>
-        <c:axId val="2147280392"/>
+        <c:axId val="-2129577688"/>
+        <c:axId val="-2129584888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2132684360"/>
+        <c:axId val="-2129577688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -659,12 +703,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2147280392"/>
+        <c:crossAx val="-2129584888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2147280392"/>
+        <c:axId val="-2129584888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -698,7 +742,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132684360"/>
+        <c:crossAx val="-2129577688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -745,7 +789,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$11</c:f>
+              <c:f>'Parallel Data'!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -784,7 +828,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$11</c:f>
+              <c:f>'Parallel Data'!$H$2:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -833,7 +877,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$11</c:f>
+              <c:f>'Parallel Data'!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -872,7 +916,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$11</c:f>
+              <c:f>'Parallel Data'!$I$2:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -921,7 +965,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$11</c:f>
+              <c:f>'Parallel Data'!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -960,7 +1004,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$11</c:f>
+              <c:f>'Parallel Data'!$J$2:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1006,7 +1050,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$11</c:f>
+              <c:f>'Parallel Data'!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1045,7 +1089,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$11</c:f>
+              <c:f>'Parallel Data'!$K$2:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1092,11 +1136,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2130174536"/>
-        <c:axId val="-2130171400"/>
+        <c:axId val="-2129632296"/>
+        <c:axId val="-2129635432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2130174536"/>
+        <c:axId val="-2129632296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,12 +1150,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130171400"/>
+        <c:crossAx val="-2129635432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2130171400"/>
+        <c:axId val="-2129635432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1122,7 +1166,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130174536"/>
+        <c:crossAx val="-2129632296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1195,7 +1239,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$8</c:f>
+              <c:f>'Parallel Data'!$G$2:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1225,7 +1269,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$8</c:f>
+              <c:f>'Parallel Data'!$H$2:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1268,7 +1312,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$8</c:f>
+              <c:f>'Parallel Data'!$G$2:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1298,7 +1342,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$8</c:f>
+              <c:f>'Parallel Data'!$I$2:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1341,7 +1385,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$8</c:f>
+              <c:f>'Parallel Data'!$G$2:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1371,7 +1415,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$8</c:f>
+              <c:f>'Parallel Data'!$J$2:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1406,11 +1450,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2129734136"/>
-        <c:axId val="-2129798040"/>
+        <c:axId val="-2126361784"/>
+        <c:axId val="-2126355992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2129734136"/>
+        <c:axId val="-2126361784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1444,12 +1488,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129798040"/>
+        <c:crossAx val="-2126355992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2129798040"/>
+        <c:axId val="-2126355992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1484,7 +1528,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129734136"/>
+        <c:crossAx val="-2126361784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1494,6 +1538,201 @@
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bandwidth v. RTT</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>90.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>78.876</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>298.303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.708</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>121.214</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>165.251</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2108369336"/>
+        <c:axId val="-2108375256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2108369336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Avg RTT</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2108375256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2108375256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bandwidth</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Mbits/sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2108369336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1524,6 +1763,17 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="108" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
@@ -1589,6 +1839,33 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8584259" cy="5832593"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -2332,4 +2609,113 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>90.3</v>
+      </c>
+      <c r="B2">
+        <v>78.876000000000005</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>8.01</v>
+      </c>
+      <c r="B3">
+        <v>298.303</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>101</v>
+      </c>
+      <c r="B4">
+        <v>68.707999999999998</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>40.1</v>
+      </c>
+      <c r="B5">
+        <v>121.214</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="B6">
+        <v>165.251</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/iperf3_analysis.xlsx
+++ b/iperf3_analysis.xlsx
@@ -4,15 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Parallel" sheetId="3" r:id="rId1"/>
-    <sheet name="Chart3" sheetId="4" r:id="rId2"/>
-    <sheet name="Parallel (7)" sheetId="6" r:id="rId3"/>
-    <sheet name="Parallel Data" sheetId="1" r:id="rId4"/>
-    <sheet name="Chart1" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
+    <sheet name="Parallel (7)" sheetId="6" r:id="rId2"/>
+    <sheet name="Parallel Data" sheetId="1" r:id="rId3"/>
+    <sheet name="RTT" sheetId="8" r:id="rId4"/>
+    <sheet name="RTT Data" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -773,430 +772,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="47625">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Parallel Data'!$G$2:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Parallel Data'!$H$2:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>75.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>137.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>191.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>191.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>194.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>198.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>198.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>168.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>158.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="47625">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Parallel Data'!$G$2:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Parallel Data'!$I$2:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>89.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>145.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>159.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>186.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>194.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>179.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>115.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>135.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>147.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>162.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="47625">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Parallel Data'!$G$2:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Parallel Data'!$J$2:$J$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>87.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>167.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>194.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>187.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>193.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>155.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>169.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="47625">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Parallel Data'!$G$2:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Parallel Data'!$K$2:$K$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>88.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>136.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>138.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>135.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>139.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>140.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>141.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>140.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>134.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>144.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-2129632296"/>
-        <c:axId val="-2129635432"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-2129632296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129635432"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-2129635432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129632296"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -1545,7 +1120,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1594,7 +1169,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>'RTT Data'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1618,7 +1193,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>'RTT Data'!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1773,17 +1348,6 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
@@ -1839,33 +1403,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8584259" cy="5832593"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -2214,10 +1751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:J8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2583,22 +2120,6 @@
       </c>
       <c r="K21">
         <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="7:11">
-      <c r="G24">
-        <v>20</v>
-      </c>
-      <c r="H24">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="7:11">
-      <c r="G25">
-        <v>50</v>
-      </c>
-      <c r="H25">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2616,7 +2137,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/iperf3_analysis.xlsx
+++ b/iperf3_analysis.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Parallel" sheetId="3" r:id="rId1"/>
     <sheet name="Parallel (7)" sheetId="6" r:id="rId2"/>
-    <sheet name="Parallel Data" sheetId="1" r:id="rId3"/>
+    <sheet name="Parallel Dump" sheetId="1" r:id="rId3"/>
     <sheet name="RTT" sheetId="8" r:id="rId4"/>
     <sheet name="RTT Data" sheetId="7" r:id="rId5"/>
+    <sheet name="Parallel Data" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Parallel Connections</t>
   </si>
@@ -81,12 +82,21 @@
   <si>
     <t>Kazakhstan</t>
   </si>
+  <si>
+    <t>Aggregate Bandwidth Trial 1 (Mbits/sec)</t>
+  </si>
+  <si>
+    <t>Trial 2 (Mbits / sec)</t>
+  </si>
+  <si>
+    <t>Trial 3 (Mbits / sec)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,6 +120,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -128,7 +150,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -140,24 +162,132 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
@@ -219,7 +349,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Parallel Data'!$G$2:$G$21</c:f>
+              <c:f>'Parallel Dump'!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -288,7 +418,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Parallel Data'!$H$2:$H$21</c:f>
+              <c:f>'Parallel Dump'!$H$2:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -370,7 +500,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Parallel Data'!$G$2:$G$21</c:f>
+              <c:f>'Parallel Dump'!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -439,7 +569,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Parallel Data'!$I$2:$I$21</c:f>
+              <c:f>'Parallel Dump'!$I$2:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -521,7 +651,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Parallel Data'!$G$2:$G$21</c:f>
+              <c:f>'Parallel Dump'!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -590,7 +720,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Parallel Data'!$J$2:$J$21</c:f>
+              <c:f>'Parallel Dump'!$J$2:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -814,7 +944,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Parallel Data'!$G$2:$G$8</c:f>
+              <c:f>'Parallel Dump'!$G$2:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -844,7 +974,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Parallel Data'!$H$2:$H$8</c:f>
+              <c:f>'Parallel Dump'!$H$2:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -887,7 +1017,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Parallel Data'!$G$2:$G$8</c:f>
+              <c:f>'Parallel Dump'!$G$2:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -917,7 +1047,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Parallel Data'!$I$2:$I$8</c:f>
+              <c:f>'Parallel Dump'!$I$2:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -960,7 +1090,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Parallel Data'!$G$2:$G$8</c:f>
+              <c:f>'Parallel Dump'!$G$2:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -990,7 +1120,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Parallel Data'!$J$2:$J$8</c:f>
+              <c:f>'Parallel Dump'!$J$2:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1174,19 +1304,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>90.3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>8.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1198,19 +1328,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>68.708</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>78.876</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>121.214</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165.251</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>298.303</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>68.708</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>121.214</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>165.251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1427,6 +1557,35 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D6" totalsRowShown="0">
+  <autoFilter ref="A1:D6"/>
+  <sortState ref="A2:D6">
+    <sortCondition descending="1" ref="A1:A6"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Bandwidth (Mbits / sec)"/>
+    <tableColumn id="2" name="Avg RTT (ms)"/>
+    <tableColumn id="3" name="Server"/>
+    <tableColumn id="4" name="Country"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D21" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:D21"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Parallel Connections" dataDxfId="5"/>
+    <tableColumn id="2" name="Aggregate Bandwidth Trial 1 (Mbits/sec)" dataDxfId="4"/>
+    <tableColumn id="3" name="Trial 2 (Mbits / sec)" dataDxfId="3"/>
+    <tableColumn id="4" name="Trial 3 (Mbits / sec)" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1753,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2137,13 +2296,13 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2163,76 +2322,399 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>90.3</v>
+        <v>101</v>
       </c>
       <c r="B2">
-        <v>78.876000000000005</v>
+        <v>68.707999999999998</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>8.01</v>
+        <v>90.3</v>
       </c>
       <c r="B3">
-        <v>298.303</v>
+        <v>78.876000000000005</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>101</v>
+        <v>40.1</v>
       </c>
       <c r="B4">
-        <v>68.707999999999998</v>
+        <v>121.214</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>40.1</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="B5">
-        <v>121.214</v>
+        <v>165.251</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>35.700000000000003</v>
+        <v>8.01</v>
       </c>
       <c r="B6">
-        <v>165.251</v>
+        <v>298.303</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="A2:D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="4" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>75.8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>89.4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>87.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>137</v>
+      </c>
+      <c r="C3" s="1">
+        <v>145</v>
+      </c>
+      <c r="D3" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>191</v>
+      </c>
+      <c r="C4" s="1">
+        <v>159</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>191</v>
+      </c>
+      <c r="C5" s="1">
+        <v>186</v>
+      </c>
+      <c r="D5" s="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>194</v>
+      </c>
+      <c r="C6" s="1">
+        <v>194</v>
+      </c>
+      <c r="D6" s="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>198</v>
+      </c>
+      <c r="C7" s="1">
+        <v>179</v>
+      </c>
+      <c r="D7" s="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>198</v>
+      </c>
+      <c r="C8" s="1">
+        <v>115</v>
+      </c>
+      <c r="D8" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>200</v>
+      </c>
+      <c r="C9" s="1">
+        <v>135</v>
+      </c>
+      <c r="D9" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>168</v>
+      </c>
+      <c r="C10" s="1">
+        <v>147</v>
+      </c>
+      <c r="D10" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>158</v>
+      </c>
+      <c r="C11" s="1">
+        <v>162</v>
+      </c>
+      <c r="D11" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>139</v>
+      </c>
+      <c r="C12" s="1">
+        <v>179</v>
+      </c>
+      <c r="D12" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>145</v>
+      </c>
+      <c r="C13" s="1">
+        <v>158</v>
+      </c>
+      <c r="D13" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>141</v>
+      </c>
+      <c r="C14" s="1">
+        <v>116</v>
+      </c>
+      <c r="D14" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>141</v>
+      </c>
+      <c r="C15" s="1">
+        <v>126</v>
+      </c>
+      <c r="D15" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>142</v>
+      </c>
+      <c r="C16" s="1">
+        <v>139</v>
+      </c>
+      <c r="D16" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>139</v>
+      </c>
+      <c r="C17" s="1">
+        <v>104</v>
+      </c>
+      <c r="D17" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>140</v>
+      </c>
+      <c r="C18" s="1">
+        <v>161</v>
+      </c>
+      <c r="D18" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>137</v>
+      </c>
+      <c r="C19" s="1">
+        <v>137</v>
+      </c>
+      <c r="D19" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>138</v>
+      </c>
+      <c r="C20" s="1">
+        <v>161</v>
+      </c>
+      <c r="D20" s="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>160</v>
+      </c>
+      <c r="C21" s="1">
+        <v>176</v>
+      </c>
+      <c r="D21" s="1">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
